--- a/SA_soft.xlsx
+++ b/SA_soft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="645" windowWidth="22515" windowHeight="9225"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>soft_skills</t>
+  </si>
   <si>
     <t>документация</t>
   </si>
@@ -39,27 +42,21 @@
     <t>переговоры</t>
   </si>
   <si>
-    <t>анализ требований</t>
-  </si>
-  <si>
     <t>системное мышление</t>
   </si>
   <si>
     <t>сбор и анализ информации</t>
   </si>
   <si>
+    <t>работа в команде</t>
+  </si>
+  <si>
     <t>сбор требований</t>
   </si>
   <si>
-    <t>управление проектами</t>
-  </si>
-  <si>
     <t>деловая коммуникация</t>
   </si>
   <si>
-    <t>системный подход</t>
-  </si>
-  <si>
     <t>обучение</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
     <t>управление персоналом</t>
   </si>
   <si>
+    <t>проектный менеджмент</t>
+  </si>
+  <si>
     <t>ориентация на результат</t>
   </si>
   <si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>многозадачность</t>
+  </si>
+  <si>
+    <t>документирование</t>
+  </si>
+  <si>
+    <t>логика</t>
   </si>
 </sst>
 </file>
@@ -433,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -554,24 +560,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
